--- a/MateriasPrimas.xlsx
+++ b/MateriasPrimas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\Desktop\Matias\Calculadora Pedidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95FCB9E-55C2-4564-AD23-660E11414604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C060058-6E44-494E-AD03-254BF061D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{641E3A34-EFF8-479C-A0EE-685C1AEF1E74}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>Harina 000</t>
   </si>
@@ -203,181 +203,202 @@
     <t>DIABÉTICOS Chocolate Blanco</t>
   </si>
   <si>
-    <t>Harina Integal</t>
-  </si>
-  <si>
-    <t>Azucar Nega</t>
-  </si>
-  <si>
-    <t>$95kg</t>
-  </si>
-  <si>
-    <t>$110kg</t>
-  </si>
-  <si>
-    <t>$114kg</t>
-  </si>
-  <si>
-    <t>$230kg</t>
-  </si>
-  <si>
-    <t>$280kg</t>
-  </si>
-  <si>
-    <t>$80kg</t>
-  </si>
-  <si>
-    <t>$160kg</t>
-  </si>
-  <si>
-    <t>$1400kg</t>
-  </si>
-  <si>
-    <t>$1900 10kg</t>
-  </si>
-  <si>
-    <t>$800kg</t>
-  </si>
-  <si>
-    <t>$1500kg</t>
-  </si>
-  <si>
-    <t>$1200kg</t>
-  </si>
-  <si>
-    <t>$1600kg</t>
-  </si>
-  <si>
-    <t>$200kg</t>
-  </si>
-  <si>
-    <t>$680kg</t>
-  </si>
-  <si>
-    <t>$1000kg</t>
-  </si>
-  <si>
-    <t>$650kg</t>
-  </si>
-  <si>
-    <t>$520kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$460kg </t>
-  </si>
-  <si>
-    <t>$92kg</t>
-  </si>
-  <si>
-    <t>Crema deleche</t>
-  </si>
-  <si>
-    <t>Dulce deleche Repostero</t>
-  </si>
-  <si>
-    <t>Chocolate para Baño conleche</t>
-  </si>
-  <si>
-    <t>DIABÉTICOS Dulce deleche Repostero</t>
-  </si>
-  <si>
-    <t>DIABÉTICOS Chocolate conleche</t>
-  </si>
-  <si>
-    <t>$140l</t>
-  </si>
-  <si>
-    <t>$620l</t>
-  </si>
-  <si>
-    <t>$660l</t>
-  </si>
-  <si>
-    <t>Pasas deuvas</t>
-  </si>
-  <si>
-    <t>$220kg</t>
-  </si>
-  <si>
-    <t>$333,33kg</t>
-  </si>
-  <si>
-    <t>$949kg</t>
-  </si>
-  <si>
-    <t>$952,5kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$633kg </t>
-  </si>
-  <si>
-    <t>$725kg</t>
-  </si>
-  <si>
-    <t>$221kg</t>
-  </si>
-  <si>
-    <t>$3900kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3900kg </t>
-  </si>
-  <si>
-    <t>$1225kg</t>
-  </si>
-  <si>
-    <t>$576,5kg</t>
-  </si>
-  <si>
-    <t>$1017kg</t>
-  </si>
-  <si>
-    <t>$375kg</t>
-  </si>
-  <si>
-    <t>$1115kg</t>
-  </si>
-  <si>
-    <t>$1586kg</t>
-  </si>
-  <si>
-    <t>$689kg</t>
-  </si>
-  <si>
-    <t>$1314kg</t>
-  </si>
-  <si>
-    <t>$534kg</t>
-  </si>
-  <si>
-    <t>$728l</t>
-  </si>
-  <si>
-    <t>$1280kg</t>
-  </si>
-  <si>
-    <t>$500kg</t>
-  </si>
-  <si>
-    <t>$7,2u</t>
-  </si>
-  <si>
-    <t>$25u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$17,33u </t>
-  </si>
-  <si>
-    <t>$300l</t>
-  </si>
-  <si>
-    <t>$1960kg</t>
-  </si>
-  <si>
-    <t>$2020kg</t>
-  </si>
-  <si>
-    <t>$394kg</t>
+    <t>$95 x Kg</t>
+  </si>
+  <si>
+    <t>Harina Integral</t>
+  </si>
+  <si>
+    <t>$110 x Kg</t>
+  </si>
+  <si>
+    <t>$114 x Kg</t>
+  </si>
+  <si>
+    <t>$230 x Kg</t>
+  </si>
+  <si>
+    <t>$280 x Kg</t>
+  </si>
+  <si>
+    <t>$640 x 500gr</t>
+  </si>
+  <si>
+    <t>$250 x 500 gr</t>
+  </si>
+  <si>
+    <t>$80 x Kg</t>
+  </si>
+  <si>
+    <t>Azucar Negra</t>
+  </si>
+  <si>
+    <t>$220 x 1kg</t>
+  </si>
+  <si>
+    <t>$100 x 300 gr</t>
+  </si>
+  <si>
+    <t>$160 x Kg</t>
+  </si>
+  <si>
+    <t>$759 x 800g</t>
+  </si>
+  <si>
+    <t>$1400 x Kg</t>
+  </si>
+  <si>
+    <t>$381 x 400g</t>
+  </si>
+  <si>
+    <t>$140 x L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$250 x 395g </t>
+  </si>
+  <si>
+    <t>Crema de Leche</t>
+  </si>
+  <si>
+    <t>$620 x L</t>
+  </si>
+  <si>
+    <t>$660 x L</t>
+  </si>
+  <si>
+    <t>Dulce de Leche Repostero</t>
+  </si>
+  <si>
+    <t>$1900 x 10 Kg</t>
+  </si>
+  <si>
+    <t>$1970 x 5 Kg</t>
+  </si>
+  <si>
+    <t>$800 x Kg</t>
+  </si>
+  <si>
+    <t>$104 x 470g</t>
+  </si>
+  <si>
+    <t>$1500 x Kg</t>
+  </si>
+  <si>
+    <t>$1200 x Kg</t>
+  </si>
+  <si>
+    <t>$1600 x Kg</t>
+  </si>
+  <si>
+    <t>$80 x 100 gr</t>
+  </si>
+  <si>
+    <t>Pasas de Uvas</t>
+  </si>
+  <si>
+    <t>$200 x Kg</t>
+  </si>
+  <si>
+    <t>$460 x 350 gr</t>
+  </si>
+  <si>
+    <t>$460 x 290g</t>
+  </si>
+  <si>
+    <t>$335 x 290g</t>
+  </si>
+  <si>
+    <t>$600 x 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$520 x 30u </t>
+  </si>
+  <si>
+    <t>$680 x kg</t>
+  </si>
+  <si>
+    <t>$1000 x 1kg</t>
+  </si>
+  <si>
+    <t>Chocolate para Baño con Leche</t>
+  </si>
+  <si>
+    <t>$1000 x 1 kg</t>
+  </si>
+  <si>
+    <t>$680 x 1kg</t>
+  </si>
+  <si>
+    <t>$680 x 1 kg</t>
+  </si>
+  <si>
+    <t>$650 x 1kg</t>
+  </si>
+  <si>
+    <t>$520 x 1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$460 x 1kg </t>
+  </si>
+  <si>
+    <t>$300 x 800g</t>
+  </si>
+  <si>
+    <t>$100 x 4u</t>
+  </si>
+  <si>
+    <t>$120 x 118g</t>
+  </si>
+  <si>
+    <t>$170 x 250g</t>
+  </si>
+  <si>
+    <t>$98 x 170g</t>
+  </si>
+  <si>
+    <t>DIABÉTICOS Dulce de Leche Repostero</t>
+  </si>
+  <si>
+    <t>$400 x 400g</t>
+  </si>
+  <si>
+    <t>$490 x 400g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$390 x 100g </t>
+  </si>
+  <si>
+    <t>DIABÉTICOS Chocolate con Leche</t>
+  </si>
+  <si>
+    <t>$390 x 100g</t>
+  </si>
+  <si>
+    <t>$50 x 7u</t>
+  </si>
+  <si>
+    <t>$196 x 100g</t>
+  </si>
+  <si>
+    <t>$202 x 100g</t>
+  </si>
+  <si>
+    <t>$254.9 x 350 ml</t>
+  </si>
+  <si>
+    <t>$10.40 x u</t>
+  </si>
+  <si>
+    <t>$18.4 x u</t>
+  </si>
+  <si>
+    <t>$337.6 x 490g</t>
+  </si>
+  <si>
+    <t>$261.8 x 490 gr</t>
+  </si>
+  <si>
+    <t>$217.5 x 300 gr</t>
   </si>
 </sst>
 </file>
@@ -396,18 +417,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -422,87 +437,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -826,21 +769,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CB111B-FF29-4503-99DB-B0626D657C5D}">
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BJ2" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -849,463 +792,447 @@
     <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="15" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="8" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" t="s">
         <v>15</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" t="s">
         <v>6</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" t="s">
         <v>20</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" t="s">
         <v>23</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" t="s">
         <v>24</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" t="s">
         <v>30</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" t="s">
         <v>29</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" t="s">
         <v>27</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" t="s">
         <v>4</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" t="s">
         <v>47</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" t="s">
         <v>16</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" t="s">
         <v>26</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="BF2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:BL2">
-    <sortCondition ref="A1:BL1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:CI2">
+    <sortCondition ref="A1:CI1"/>
   </sortState>
-  <conditionalFormatting sqref="A2:BL2">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="kg">
-      <formula>NOT(ISERROR(SEARCH("kg",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="u">
-      <formula>NOT(ISERROR(SEARCH("u",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="g">
-      <formula>NOT(ISERROR(SEARCH("g",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="ml">
-      <formula>NOT(ISERROR(SEARCH("ml",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="l">
-      <formula>NOT(ISERROR(SEARCH("l",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>